--- a/Engine/data/datasheet/ui_parameter.xlsx
+++ b/Engine/data/datasheet/ui_parameter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js_choi\Desktop\mainproject\Engine\Engine\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js_choi\Desktop\mainproject\Engine\Engine\data\datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244B98B5-AFA9-485F-B137-1FC57B57CBC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5286114-32E3-4CD0-A7FB-42D5FE45A6C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="1845" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="2190" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="player_parameter" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="23">
-  <si>
-    <t>bullet.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
   <si>
     <t>이미지 원래 사이즈를 사용하고 싶으면 0</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>button.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -55,14 +47,6 @@
   </si>
   <si>
     <t>Size_Y</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>button3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>button4</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1148,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1160,26 +1144,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4">
         <v>960</v>
@@ -1187,7 +1171,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
         <v>30</v>
@@ -1195,7 +1179,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
         <v>729</v>
@@ -1203,7 +1187,7 @@
     </row>
     <row r="6" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="6">
         <v>45</v>
@@ -1211,26 +1195,26 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4">
         <v>960</v>
@@ -1238,7 +1222,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" s="4">
         <v>30</v>
@@ -1246,7 +1230,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" s="4">
         <v>729</v>
@@ -1254,7 +1238,7 @@
     </row>
     <row r="12" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" s="6">
         <v>45</v>
@@ -1262,23 +1246,23 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" s="4">
         <v>960</v>
@@ -1286,7 +1270,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" s="4">
         <v>1030</v>
@@ -1294,7 +1278,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" s="4">
         <v>729</v>
@@ -1302,7 +1286,7 @@
     </row>
     <row r="18" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18" s="6">
         <v>45</v>
@@ -1310,23 +1294,23 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" s="4">
         <v>960</v>
@@ -1334,7 +1318,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" s="4">
         <v>1030</v>
@@ -1342,7 +1326,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B23" s="4">
         <v>729</v>
@@ -1350,7 +1334,7 @@
     </row>
     <row r="24" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="6">
         <v>45</v>
@@ -1358,23 +1342,23 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B27" s="4">
         <v>10</v>
@@ -1382,29 +1366,29 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B28" s="4">
         <v>170</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B29" s="4">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B30" s="6">
         <v>0</v>
@@ -1412,23 +1396,23 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B33" s="4">
         <v>810</v>
@@ -1436,7 +1420,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B34" s="4">
         <v>1050</v>
@@ -1444,121 +1428,73 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B35" s="4">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B36" s="6">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="4">
-        <v>10</v>
-      </c>
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="4">
-        <v>270</v>
-      </c>
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="4">
-        <v>50</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="6">
-        <v>50</v>
-      </c>
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="A44" s="3"/>
+      <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="4">
-        <v>10</v>
-      </c>
+      <c r="A45" s="3"/>
+      <c r="B45" s="4"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="4">
-        <v>320</v>
-      </c>
+      <c r="A46" s="3"/>
+      <c r="B46" s="4"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="4">
-        <v>50</v>
-      </c>
+      <c r="A47" s="3"/>
+      <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="6">
-        <v>50</v>
-      </c>
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Engine/data/datasheet/ui_parameter.xlsx
+++ b/Engine/data/datasheet/ui_parameter.xlsx
@@ -3,24 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29790E2F-6EA9-48FD-A4A9-5E2E3348ABBE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2644F8-8592-43E9-A026-2DFE1A57C25D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32085" yWindow="1455" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="1020" windowWidth="12420" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>이미지 원래 사이즈를 사용하고 싶으면 0</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -58,26 +64,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>item_bar.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM_BAR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hpbar_front.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PLAYER_HPBAR_FRONT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>hpbar_back.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PLAYER_HPBAR_BACK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -95,6 +85,30 @@
   </si>
   <si>
     <t>BOSS_HPBAR_BACK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_TIMER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_hp_back.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_hp_front.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timer2.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_hp_back.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_hp_front.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -512,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -527,10 +541,10 @@
         <v>8</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -538,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -547,7 +561,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>960</v>
+        <v>1423</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -556,7 +570,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -565,7 +579,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4">
-        <v>729</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -574,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -583,10 +597,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -594,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -603,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4">
-        <v>960</v>
+        <v>1442</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -612,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="4">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -621,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="4">
-        <v>729</v>
+        <v>426</v>
       </c>
       <c r="C11" s="1"/>
     </row>
@@ -630,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1"/>
     </row>
@@ -639,7 +653,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1"/>
     </row>
@@ -648,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1"/>
     </row>
@@ -657,7 +671,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>960</v>
+        <v>125</v>
       </c>
       <c r="C15" s="1"/>
     </row>
@@ -666,7 +680,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="4">
-        <v>1030</v>
+        <v>1008</v>
       </c>
       <c r="C16" s="1"/>
     </row>
@@ -675,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="4">
-        <v>729</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1"/>
     </row>
@@ -684,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1"/>
     </row>
@@ -693,7 +707,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1"/>
     </row>
@@ -702,7 +716,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1"/>
     </row>
@@ -711,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="4">
-        <v>960</v>
+        <v>139</v>
       </c>
       <c r="C21" s="1"/>
     </row>
@@ -720,7 +734,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="4">
-        <v>1030</v>
+        <v>1012.5</v>
       </c>
       <c r="C22" s="1"/>
     </row>
@@ -729,7 +743,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="4">
-        <v>729</v>
+        <v>282</v>
       </c>
       <c r="C23" s="1"/>
     </row>
@@ -738,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="2">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1"/>
     </row>
@@ -747,7 +761,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -756,7 +770,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1"/>
     </row>
@@ -765,7 +779,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1"/>
     </row>
@@ -774,11 +788,9 @@
         <v>3</v>
       </c>
       <c r="B28" s="4">
-        <v>170</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>771</v>
+      </c>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -798,63 +810,55 @@
       <c r="B30" s="2">
         <v>0</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="4">
-        <v>10</v>
-      </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="4">
-        <v>100</v>
-      </c>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="4">
         <v>0</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="2">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Engine/data/datasheet/ui_parameter.xlsx
+++ b/Engine/data/datasheet/ui_parameter.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2644F8-8592-43E9-A026-2DFE1A57C25D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628C0637-B7F1-440A-847F-18C5BC038066}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="1020" windowWidth="12420" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,11 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
-  <si>
-    <t>이미지 원래 사이즈를 사용하고 싶으면 0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
   <si>
     <t>Size_Y</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -48,18 +44,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>icon_basic.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Filename</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PLAYER_ATTACK_TYPE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -88,10 +76,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PLAYER_TIMER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>boss_hp_back.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -100,15 +84,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>timer2.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>player_hp_back.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>player_hp_front.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER2_HPBAR_BACK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER2_HPBAR_FRONT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -526,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -538,36 +526,36 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>1423</v>
+        <v>960</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>32</v>
@@ -576,7 +564,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -585,7 +573,7 @@
     </row>
     <row r="6" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -594,36 +582,36 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4">
-        <v>1442</v>
+        <v>979</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4">
         <v>37</v>
@@ -632,7 +620,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="4">
         <v>426</v>
@@ -641,7 +629,7 @@
     </row>
     <row r="12" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" s="2">
         <v>23</v>
@@ -650,25 +638,25 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="4">
         <v>125</v>
@@ -677,7 +665,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="4">
         <v>1008</v>
@@ -686,7 +674,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="4">
         <v>0</v>
@@ -695,7 +683,7 @@
     </row>
     <row r="18" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -704,25 +692,25 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="4">
         <v>139</v>
@@ -731,7 +719,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="4">
         <v>1012.5</v>
@@ -740,7 +728,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="4">
         <v>282</v>
@@ -749,7 +737,7 @@
     </row>
     <row r="24" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" s="2">
         <v>25</v>
@@ -758,108 +746,104 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="4">
-        <v>30</v>
+        <v>1400</v>
       </c>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" s="4">
-        <v>771</v>
+        <v>1008</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="4">
         <v>0</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="4">
-        <v>8</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="4">
-        <v>877</v>
+        <v>1012.5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" s="4">
-        <v>0</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Engine/data/datasheet/ui_parameter.xlsx
+++ b/Engine/data/datasheet/ui_parameter.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628C0637-B7F1-440A-847F-18C5BC038066}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5AC19E-2105-4808-89A4-5919439F463A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
   <si>
     <t>Size_Y</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>PLAYER2_HPBAR_FRONT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_ulti_front.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_ULTI_BACK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_ULTI_FRONT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -512,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -641,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1"/>
     </row>
@@ -668,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="4">
-        <v>1008</v>
+        <v>1030</v>
       </c>
       <c r="C16" s="1"/>
     </row>
@@ -695,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1"/>
     </row>
@@ -704,7 +716,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1"/>
     </row>
@@ -713,7 +725,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="4">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C21" s="1"/>
     </row>
@@ -722,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>1012.5</v>
+        <v>1034.5</v>
       </c>
       <c r="C22" s="1"/>
     </row>
@@ -749,7 +761,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -767,7 +779,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="4">
-        <v>1400</v>
+        <v>125</v>
       </c>
       <c r="C27" s="1"/>
     </row>
@@ -803,7 +815,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -819,7 +831,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="4">
-        <v>1414</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -843,6 +855,102 @@
         <v>0</v>
       </c>
       <c r="B36" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1012.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2">
         <v>25</v>
       </c>
     </row>

--- a/Engine/data/datasheet/ui_parameter.xlsx
+++ b/Engine/data/datasheet/ui_parameter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5AC19E-2105-4808-89A4-5919439F463A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3776520B-0270-4560-9008-A4D9419BA92C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,7 +18,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="23">
   <si>
     <t>Size_Y</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -109,6 +108,14 @@
   </si>
   <si>
     <t>PLAYER_ULTI_FRONT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>START_SCREEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -524,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -954,6 +961,54 @@
         <v>25</v>
       </c>
     </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Engine/data/datasheet/ui_parameter.xlsx
+++ b/Engine/data/datasheet/ui_parameter.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3776520B-0270-4560-9008-A4D9419BA92C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B542BE5-C02A-486D-85D0-9FEC7DBABDD9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="4">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -633,7 +633,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="4">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C11" s="1"/>
     </row>
@@ -838,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="4">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="4">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">

--- a/Engine/data/datasheet/ui_parameter.xlsx
+++ b/Engine/data/datasheet/ui_parameter.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B542BE5-C02A-486D-85D0-9FEC7DBABDD9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B8DA8A-0AF7-4801-8134-31D7F0F47AFE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="26">
   <si>
     <t>Size_Y</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t>title.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESURRECTION_COUNT1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESURRECTION_COUNT2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resurrection.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -568,7 +580,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>960</v>
+        <v>710</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -624,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="4">
-        <v>977</v>
+        <v>725</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -633,7 +645,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -642,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="4">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C11" s="1"/>
     </row>
@@ -651,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1"/>
     </row>
@@ -854,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="4">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -934,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="4">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -950,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="4">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1007,6 +1019,102 @@
       </c>
       <c r="B54" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="4">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="4">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
